--- a/medicine/Psychotrope/Japan_Tobacco_International/Japan_Tobacco_International.xlsx
+++ b/medicine/Psychotrope/Japan_Tobacco_International/Japan_Tobacco_International.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Japan Tobacco International (JTI) fait partie du groupe Japan Tobacco, acteur mondial de premier plan de l’industrie du tabac. Le siège social est établi à Genève, en Suisse. Ses marques sont commercialisées dans 120 pays.
@@ -514,16 +526,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">JTI est née en 1999 du rachat, à hauteur de 7,8 milliards de dollars américains, des opérations tabac internationales de l'entreprise américaine R.J. Reynolds.
-JTI est présente dans plusieurs pays, à travers le rachat par JT d'autres entreprises comme Gallaher Group en 2007[4].
+JTI est présente dans plusieurs pays, à travers le rachat par JT d'autres entreprises comme Gallaher Group en 2007.
 JTI est aussi actionnaire majoritaire du groupe TCC (Tanzania Cigarette Company). Avec TCC, les marques JTI occupent la deuxième place du marché de cigarette en Tanzanie, en République démocratique du Congo et au Kenya.
 JTI signe, en 2011, un contrat de coopération avec l'entreprise californienne de tabac chauffé Ploom. 
 En 2012, JTI rachète la société belge de tabac Gryson pour 450 millions d'euros.
-En janvier 2015, JTI rachète la marque Natural American Spirit hors des États-Unis auprès de R.J. Reynolds, pour un montant de 5 milliards de dollars américains[5].
-En février 2015, l'entreprise achète également au fabricant de cigarettes électroniques américain Ploom les brevets et marques de son segment d'activité lié aux appareils de vaporisation du tabac[6]. La même année, JTI rachète l'entreprise Ploom[7].
-En 2023, le chiffre d'affaires de la société en Russie s'élève à 4,9 milliards d'euros[8].
+En janvier 2015, JTI rachète la marque Natural American Spirit hors des États-Unis auprès de R.J. Reynolds, pour un montant de 5 milliards de dollars américains.
+En février 2015, l'entreprise achète également au fabricant de cigarettes électroniques américain Ploom les brevets et marques de son segment d'activité lié aux appareils de vaporisation du tabac. La même année, JTI rachète l'entreprise Ploom.
+En 2023, le chiffre d'affaires de la société en Russie s'élève à 4,9 milliards d'euros.
 </t>
         </is>
       </c>
@@ -554,8 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principales marques mondiales
-Winston
+          <t>Principales marques mondiales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Winston
 Mevius (anciennement Mild Seven)
 Camel
 Benson &amp; Hedges
@@ -566,8 +585,43 @@
 Natural American Spirit
 			Benson &amp; Hedges Silver
 			Un cendrier et un paquet de cigarettes Winston.
-Autres marques locales
-Export A (distribuée à travers le Canada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres marques locales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Export A (distribuée à travers le Canada)
 Coronas
 Ducat
 Magna
@@ -583,19 +637,121 @@
 Sovereign
 St George
 Troika
-Winchester
-Autres produits du tabac
-Hamlet (cigares)
+Winchester</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres produits du tabac</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hamlet (cigares)
 Old Holborn (tabac à rouler)
 Amber Leaf (tabac à rouler)
 Gustavus Snus (un tabac sans fumée de style suédois)
-Ploom (capsules de tabac chauffées dans un "vaporisateur")
-Cigarettes électroniques
-Logic
+Ploom (capsules de tabac chauffées dans un "vaporisateur")</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cigarettes électroniques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Logic
 E-lites (sur le marché Anglais, depuis migrée sur Logic)
-Buble
-Autres marques
-JTI dispose également d'un portefeuille de marques de cigarettes que l’entreprise commercialise localement.
+Buble</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Japan_Tobacco_International</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres marques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JTI dispose également d'un portefeuille de marques de cigarettes que l’entreprise commercialise localement.
 </t>
         </is>
       </c>
